--- a/Question/Only_Amazon.xlsx
+++ b/Question/Only_Amazon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00764663-46BF-48DA-8069-EE84E7905EAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21522495-1D70-436A-A2B2-CA2E81E356F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03F0B197-2B7A-4F3C-AD55-70E8FD3568F4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{03F0B197-2B7A-4F3C-AD55-70E8FD3568F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="1570">
   <si>
     <t>Reorder Data in Log Files</t>
   </si>
@@ -4842,6 +4842,45 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF92D050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -4883,45 +4922,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF92D050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4936,13 +4936,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E9B5B2C-7729-4F9E-A40A-B99A83B3B492}" name="Table1" displayName="Table1" ref="A1:E781" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E9B5B2C-7729-4F9E-A40A-B99A83B3B492}" name="Table1" displayName="Table1" ref="A1:E781" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:E781" xr:uid="{24D7DA6A-02BD-4BE7-8A50-75507A040CED}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D781">
-    <sortCondition sortBy="cellColor" ref="C1:C781" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="C1:C781" dxfId="5"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{33CBD092-269F-4615-A53B-C4287FF6F884}" name="Sr.No" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{33CBD092-269F-4615-A53B-C4287FF6F884}" name="Sr.No" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{64055A60-A890-46B5-8A1B-D7095982C783}" name="Name"/>
     <tableColumn id="4" xr3:uid="{178C19E2-A0BB-4E7C-829B-7FDBB863C057}" name="Difficulty"/>
     <tableColumn id="6" xr3:uid="{70A7CE9C-1A58-41A1-9FFE-5E9C48C60FEA}" name="Url"/>
@@ -5251,8 +5251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978693D1-CBC7-456F-A7AE-FF0803AD55CD}">
   <dimension ref="A1:K781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90:E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6809,6 +6809,9 @@
       <c r="D91" t="s">
         <v>1254</v>
       </c>
+      <c r="E91" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1">
@@ -6823,6 +6826,9 @@
       <c r="D92" t="s">
         <v>1076</v>
       </c>
+      <c r="E92" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1">
@@ -6837,6 +6843,9 @@
       <c r="D93" t="s">
         <v>1048</v>
       </c>
+      <c r="E93" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1">
@@ -6851,6 +6860,9 @@
       <c r="D94" t="s">
         <v>1172</v>
       </c>
+      <c r="E94" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1">
@@ -6865,6 +6877,9 @@
       <c r="D95" t="s">
         <v>896</v>
       </c>
+      <c r="E95" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1">
@@ -6879,8 +6894,11 @@
       <c r="D96" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="1">
         <v>557</v>
       </c>
@@ -6893,8 +6911,11 @@
       <c r="D97" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="1">
         <v>771</v>
       </c>
@@ -6907,8 +6928,11 @@
       <c r="D98" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="1">
         <v>686</v>
       </c>
@@ -6921,8 +6945,11 @@
       <c r="D99" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="1">
         <v>541</v>
       </c>
@@ -6935,8 +6962,11 @@
       <c r="D100" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="1">
         <v>637</v>
       </c>
@@ -6950,7 +6980,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:5">
       <c r="A102" s="1">
         <v>339</v>
       </c>
@@ -6964,7 +6994,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:5">
       <c r="A103" s="1">
         <v>1122</v>
       </c>
@@ -6978,7 +7008,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:5">
       <c r="A104" s="1">
         <v>111</v>
       </c>
@@ -6992,7 +7022,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:5">
       <c r="A105" s="1">
         <v>844</v>
       </c>
@@ -7006,7 +7036,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:5">
       <c r="A106" s="1">
         <v>100</v>
       </c>
@@ -7020,7 +7050,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:5">
       <c r="A107" s="1">
         <v>1002</v>
       </c>
@@ -7034,7 +7064,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:5">
       <c r="A108" s="1">
         <v>1360</v>
       </c>
@@ -7048,7 +7078,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:5">
       <c r="A109" s="1">
         <v>183</v>
       </c>
@@ -7062,7 +7092,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:5">
       <c r="A110" s="1">
         <v>849</v>
       </c>
@@ -7076,7 +7106,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:5">
       <c r="A111" s="1">
         <v>687</v>
       </c>
@@ -7090,7 +7120,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:5">
       <c r="A112" s="1">
         <v>237</v>
       </c>
@@ -16473,13 +16503,13 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C2:C781">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16496,7 +16526,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Tree">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Tree">
       <formula>NOT(ISERROR(SEARCH("Tree",B1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Question/Only_Amazon.xlsx
+++ b/Question/Only_Amazon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21522495-1D70-436A-A2B2-CA2E81E356F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB167AC-5DF7-4346-8A27-C388379DACCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{03F0B197-2B7A-4F3C-AD55-70E8FD3568F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03F0B197-2B7A-4F3C-AD55-70E8FD3568F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="1570">
   <si>
     <t>Reorder Data in Log Files</t>
   </si>
@@ -5251,8 +5251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978693D1-CBC7-456F-A7AE-FF0803AD55CD}">
   <dimension ref="A1:K781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90:E100"/>
+    <sheetView tabSelected="1" topLeftCell="C170" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6979,6 +6979,9 @@
       <c r="D101" t="s">
         <v>1022</v>
       </c>
+      <c r="E101" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1">
@@ -6993,6 +6996,9 @@
       <c r="D102" t="s">
         <v>686</v>
       </c>
+      <c r="E102" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1">
@@ -7007,6 +7013,9 @@
       <c r="D103" t="s">
         <v>484</v>
       </c>
+      <c r="E103" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1">
@@ -7021,6 +7030,9 @@
       <c r="D104" t="s">
         <v>1412</v>
       </c>
+      <c r="E104" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1">
@@ -7035,6 +7047,9 @@
       <c r="D105" t="s">
         <v>666</v>
       </c>
+      <c r="E105" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1">
@@ -7049,6 +7064,9 @@
       <c r="D106" t="s">
         <v>970</v>
       </c>
+      <c r="E106" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1">
@@ -7063,6 +7081,9 @@
       <c r="D107" t="s">
         <v>656</v>
       </c>
+      <c r="E107" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1">
@@ -7077,6 +7098,9 @@
       <c r="D108" t="s">
         <v>528</v>
       </c>
+      <c r="E108" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1">
@@ -7091,6 +7115,9 @@
       <c r="D109" t="s">
         <v>824</v>
       </c>
+      <c r="E109" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1">
@@ -7105,6 +7132,9 @@
       <c r="D110" t="s">
         <v>728</v>
       </c>
+      <c r="E110" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1">
@@ -7119,6 +7149,9 @@
       <c r="D111" t="s">
         <v>1334</v>
       </c>
+      <c r="E111" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1">
@@ -7133,8 +7166,11 @@
       <c r="D112" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="1">
         <v>1084</v>
       </c>
@@ -7147,8 +7183,11 @@
       <c r="D113" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="1">
         <v>345</v>
       </c>
@@ -7161,8 +7200,11 @@
       <c r="D114" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="1">
         <v>783</v>
       </c>
@@ -7175,8 +7217,11 @@
       <c r="D115" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="1">
         <v>107</v>
       </c>
@@ -7189,8 +7234,11 @@
       <c r="D116" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="1">
         <v>905</v>
       </c>
@@ -7203,8 +7251,11 @@
       <c r="D117" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="1">
         <v>860</v>
       </c>
@@ -7217,8 +7268,11 @@
       <c r="D118" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="1">
         <v>581</v>
       </c>
@@ -7231,8 +7285,11 @@
       <c r="D119" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="1">
         <v>447</v>
       </c>
@@ -7245,8 +7302,11 @@
       <c r="D120" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="1">
         <v>532</v>
       </c>
@@ -7259,8 +7319,11 @@
       <c r="D121" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="1">
         <v>290</v>
       </c>
@@ -7273,8 +7336,11 @@
       <c r="D122" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="1">
         <v>876</v>
       </c>
@@ -7287,8 +7353,11 @@
       <c r="D123" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="1">
         <v>191</v>
       </c>
@@ -7301,8 +7370,11 @@
       <c r="D124" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="1">
         <v>586</v>
       </c>
@@ -7315,8 +7387,11 @@
       <c r="D125" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="1">
         <v>383</v>
       </c>
@@ -7329,8 +7404,11 @@
       <c r="D126" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="1">
         <v>657</v>
       </c>
@@ -7343,8 +7421,11 @@
       <c r="D127" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="1">
         <v>938</v>
       </c>
@@ -7357,8 +7438,11 @@
       <c r="D128" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="1">
         <v>203</v>
       </c>
@@ -7371,8 +7455,11 @@
       <c r="D129" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="1">
         <v>359</v>
       </c>
@@ -7385,8 +7472,11 @@
       <c r="D130" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="1">
         <v>796</v>
       </c>
@@ -7399,8 +7489,11 @@
       <c r="D131" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="E131" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="1">
         <v>559</v>
       </c>
@@ -7413,8 +7506,11 @@
       <c r="D132" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="1">
         <v>414</v>
       </c>
@@ -7427,8 +7523,11 @@
       <c r="D133" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="1">
         <v>1108</v>
       </c>
@@ -7441,8 +7540,11 @@
       <c r="D134" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="1">
         <v>1013</v>
       </c>
@@ -7455,8 +7557,11 @@
       <c r="D135" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="1">
         <v>119</v>
       </c>
@@ -7469,8 +7574,11 @@
       <c r="D136" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="1">
         <v>746</v>
       </c>
@@ -7483,8 +7591,11 @@
       <c r="D137" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="1">
         <v>453</v>
       </c>
@@ -7497,8 +7608,11 @@
       <c r="D138" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="E138" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="1">
         <v>762</v>
       </c>
@@ -7511,8 +7625,11 @@
       <c r="D139" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="E139" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="1">
         <v>1047</v>
       </c>
@@ -7525,8 +7642,11 @@
       <c r="D140" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="E140" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="1">
         <v>507</v>
       </c>
@@ -7539,8 +7659,11 @@
       <c r="D141" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="E141" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="1">
         <v>35</v>
       </c>
@@ -7553,8 +7676,11 @@
       <c r="D142" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="E142" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="1">
         <v>811</v>
       </c>
@@ -7567,8 +7693,11 @@
       <c r="D143" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="E143" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="1">
         <v>669</v>
       </c>
@@ -7581,8 +7710,11 @@
       <c r="D144" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="E144" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="1">
         <v>604</v>
       </c>
@@ -7595,8 +7727,11 @@
       <c r="D145" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="E145" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="1">
         <v>219</v>
       </c>
@@ -7609,8 +7744,11 @@
       <c r="D146" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="E146" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="1">
         <v>852</v>
       </c>
@@ -7623,8 +7761,11 @@
       <c r="D147" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="E147" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="1">
         <v>977</v>
       </c>
@@ -7637,8 +7778,11 @@
       <c r="D148" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="1">
         <v>561</v>
       </c>
@@ -7651,8 +7795,11 @@
       <c r="D149" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="E149" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="1">
         <v>720</v>
       </c>
@@ -7665,8 +7812,11 @@
       <c r="D150" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="E150" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" s="1">
         <v>404</v>
       </c>
@@ -7679,8 +7829,11 @@
       <c r="D151" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="E151" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="1">
         <v>724</v>
       </c>
@@ -7693,8 +7846,11 @@
       <c r="D152" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="E152" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" s="1">
         <v>942</v>
       </c>
@@ -7707,8 +7863,11 @@
       <c r="D153" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="E153" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" s="1">
         <v>1005</v>
       </c>
@@ -7721,8 +7880,11 @@
       <c r="D154" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="E154" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" s="1">
         <v>392</v>
       </c>
@@ -7735,8 +7897,11 @@
       <c r="D155" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="E155" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" s="1">
         <v>1160</v>
       </c>
@@ -7749,8 +7914,11 @@
       <c r="D156" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="E156" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="1">
         <v>475</v>
       </c>
@@ -7763,8 +7931,11 @@
       <c r="D157" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="E157" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="1">
         <v>1114</v>
       </c>
@@ -7777,8 +7948,11 @@
       <c r="D158" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="E158" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="1">
         <v>1299</v>
       </c>
@@ -7791,8 +7965,11 @@
       <c r="D159" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="E159" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="1">
         <v>1179</v>
       </c>
@@ -7805,8 +7982,11 @@
       <c r="D160" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="E160" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="1">
         <v>67</v>
       </c>
@@ -7819,8 +7999,11 @@
       <c r="D161" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="E161" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" s="1">
         <v>671</v>
       </c>
@@ -7833,8 +8016,11 @@
       <c r="D162" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="E162" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" s="1">
         <v>1068</v>
       </c>
@@ -7847,8 +8033,11 @@
       <c r="D163" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="E163" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="1">
         <v>196</v>
       </c>
@@ -7861,8 +8050,11 @@
       <c r="D164" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="E164" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="1">
         <v>172</v>
       </c>
@@ -7875,8 +8067,11 @@
       <c r="D165" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="E165" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="1">
         <v>1266</v>
       </c>
@@ -7889,8 +8084,11 @@
       <c r="D166" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="E166" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" s="1">
         <v>485</v>
       </c>
@@ -7903,8 +8101,11 @@
       <c r="D167" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="E167" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="1">
         <v>27</v>
       </c>
@@ -7917,8 +8118,11 @@
       <c r="D168" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="E168" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" s="1">
         <v>661</v>
       </c>
@@ -7931,8 +8135,11 @@
       <c r="D169" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="E169" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="1">
         <v>461</v>
       </c>
@@ -7945,8 +8152,11 @@
       <c r="D170" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="E170" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" s="1">
         <v>605</v>
       </c>
@@ -7959,8 +8169,11 @@
       <c r="D171" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
+      <c r="E171" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" s="1">
         <v>367</v>
       </c>
@@ -7973,8 +8186,11 @@
       <c r="D172" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="E172" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" s="1">
         <v>459</v>
       </c>
@@ -7987,8 +8203,11 @@
       <c r="D173" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="E173" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" s="1">
         <v>278</v>
       </c>
@@ -8002,7 +8221,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:5">
       <c r="A175" s="1">
         <v>884</v>
       </c>
@@ -8016,7 +8235,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:5">
       <c r="A176" s="1">
         <v>705</v>
       </c>

--- a/Question/Only_Amazon.xlsx
+++ b/Question/Only_Amazon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB167AC-5DF7-4346-8A27-C388379DACCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC47F69-B8CE-4775-B772-0C382BFEE43D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03F0B197-2B7A-4F3C-AD55-70E8FD3568F4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{03F0B197-2B7A-4F3C-AD55-70E8FD3568F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="1570">
   <si>
     <t>Reorder Data in Log Files</t>
   </si>
@@ -4842,45 +4842,6 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF92D050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -4922,6 +4883,45 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF92D050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4936,13 +4936,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E9B5B2C-7729-4F9E-A40A-B99A83B3B492}" name="Table1" displayName="Table1" ref="A1:E781" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E9B5B2C-7729-4F9E-A40A-B99A83B3B492}" name="Table1" displayName="Table1" ref="A1:E781" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:E781" xr:uid="{24D7DA6A-02BD-4BE7-8A50-75507A040CED}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D781">
-    <sortCondition sortBy="cellColor" ref="C1:C781" dxfId="5"/>
+    <sortCondition sortBy="cellColor" ref="C1:C781" dxfId="1"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{33CBD092-269F-4615-A53B-C4287FF6F884}" name="Sr.No" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{33CBD092-269F-4615-A53B-C4287FF6F884}" name="Sr.No" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{64055A60-A890-46B5-8A1B-D7095982C783}" name="Name"/>
     <tableColumn id="4" xr3:uid="{178C19E2-A0BB-4E7C-829B-7FDBB863C057}" name="Difficulty"/>
     <tableColumn id="6" xr3:uid="{70A7CE9C-1A58-41A1-9FFE-5E9C48C60FEA}" name="Url"/>
@@ -5251,8 +5251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978693D1-CBC7-456F-A7AE-FF0803AD55CD}">
   <dimension ref="A1:K781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C170" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174"/>
+    <sheetView tabSelected="1" topLeftCell="D215" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8220,6 +8220,9 @@
       <c r="D174" t="s">
         <v>1414</v>
       </c>
+      <c r="E174" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1">
@@ -8234,6 +8237,9 @@
       <c r="D175" t="s">
         <v>1040</v>
       </c>
+      <c r="E175" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1">
@@ -8248,8 +8254,11 @@
       <c r="D176" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="E176" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" s="1">
         <v>674</v>
       </c>
@@ -8262,8 +8271,11 @@
       <c r="D177" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="E177" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" s="1">
         <v>1082</v>
       </c>
@@ -8276,8 +8288,11 @@
       <c r="D178" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="E178" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="1">
         <v>953</v>
       </c>
@@ -8290,8 +8305,11 @@
       <c r="D179" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="E179" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" s="1">
         <v>1337</v>
       </c>
@@ -8304,8 +8322,11 @@
       <c r="D180" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="E180" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" s="1">
         <v>1495</v>
       </c>
@@ -8318,8 +8339,11 @@
       <c r="D181" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="E181" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" s="1">
         <v>872</v>
       </c>
@@ -8332,8 +8356,11 @@
       <c r="D182" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="E182" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" s="1">
         <v>584</v>
       </c>
@@ -8346,8 +8373,11 @@
       <c r="D183" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="E183" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" s="1">
         <v>1332</v>
       </c>
@@ -8360,8 +8390,11 @@
       <c r="D184" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="E184" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" s="1">
         <v>1029</v>
       </c>
@@ -8374,8 +8407,11 @@
       <c r="D185" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="E185" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" s="1">
         <v>1251</v>
       </c>
@@ -8388,8 +8424,11 @@
       <c r="D186" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="E186" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" s="1">
         <v>1069</v>
       </c>
@@ -8402,8 +8441,11 @@
       <c r="D187" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="E187" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" s="1">
         <v>922</v>
       </c>
@@ -8416,8 +8458,11 @@
       <c r="D188" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="E188" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" s="1">
         <v>1221</v>
       </c>
@@ -8430,8 +8475,11 @@
       <c r="D189" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="E189" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" s="1">
         <v>1303</v>
       </c>
@@ -8444,8 +8492,11 @@
       <c r="D190" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="E190" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" s="1">
         <v>1128</v>
       </c>
@@ -8458,8 +8509,11 @@
       <c r="D191" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="E191" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" s="1">
         <v>1051</v>
       </c>
@@ -8472,8 +8526,11 @@
       <c r="D192" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="E192" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" s="1">
         <v>704</v>
       </c>
@@ -8486,8 +8543,11 @@
       <c r="D193" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="E193" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" s="1">
         <v>965</v>
       </c>
@@ -8500,8 +8560,11 @@
       <c r="D194" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="E194" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" s="1">
         <v>590</v>
       </c>
@@ -8514,8 +8577,11 @@
       <c r="D195" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="E195" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" s="1">
         <v>1511</v>
       </c>
@@ -8528,8 +8594,11 @@
       <c r="D196" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="E196" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" s="1">
         <v>606</v>
       </c>
@@ -8542,8 +8611,11 @@
       <c r="D197" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="E197" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" s="1">
         <v>190</v>
       </c>
@@ -8556,8 +8628,11 @@
       <c r="D198" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="E198" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" s="1">
         <v>1304</v>
       </c>
@@ -8570,8 +8645,11 @@
       <c r="D199" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="E199" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" s="1">
         <v>501</v>
       </c>
@@ -8584,8 +8662,11 @@
       <c r="D200" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="E200" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" s="1">
         <v>303</v>
       </c>
@@ -8598,8 +8679,11 @@
       <c r="D201" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="E201" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202" s="1">
         <v>665</v>
       </c>
@@ -8612,8 +8696,11 @@
       <c r="D202" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="E202" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203" s="1">
         <v>389</v>
       </c>
@@ -8626,8 +8713,11 @@
       <c r="D203" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="E203" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" s="1">
         <v>1365</v>
       </c>
@@ -8640,8 +8730,11 @@
       <c r="D204" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="E204" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" s="1">
         <v>1351</v>
       </c>
@@ -8654,8 +8747,11 @@
       <c r="D205" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="E205" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206" s="1">
         <v>1431</v>
       </c>
@@ -8668,8 +8764,11 @@
       <c r="D206" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="207" spans="1:4">
+      <c r="E206" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" s="1">
         <v>645</v>
       </c>
@@ -8682,8 +8781,11 @@
       <c r="D207" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
+      <c r="E207" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" s="1">
         <v>1065</v>
       </c>
@@ -8696,8 +8798,11 @@
       <c r="D208" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="209" spans="1:4">
+      <c r="E208" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" s="1">
         <v>1085</v>
       </c>
@@ -8710,8 +8815,11 @@
       <c r="D209" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="E209" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210" s="1">
         <v>1118</v>
       </c>
@@ -8724,8 +8832,11 @@
       <c r="D210" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="E210" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211" s="1">
         <v>1119</v>
       </c>
@@ -8738,8 +8849,11 @@
       <c r="D211" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="E211" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212" s="1">
         <v>1134</v>
       </c>
@@ -8752,8 +8866,11 @@
       <c r="D212" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="213" spans="1:4">
+      <c r="E212" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213" s="1">
         <v>1133</v>
       </c>
@@ -8766,8 +8883,11 @@
       <c r="D213" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
+      <c r="E213" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214" s="1">
         <v>1050</v>
       </c>
@@ -8780,8 +8900,11 @@
       <c r="D214" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="E214" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215" s="1">
         <v>1175</v>
       </c>
@@ -8794,8 +8917,11 @@
       <c r="D215" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
+      <c r="E215" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" s="1">
         <v>1176</v>
       </c>
@@ -8808,8 +8934,11 @@
       <c r="D216" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="217" spans="1:4">
+      <c r="E216" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" s="1">
         <v>1260</v>
       </c>
@@ -8822,8 +8951,11 @@
       <c r="D217" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="218" spans="1:4">
+      <c r="E217" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" s="1">
         <v>1327</v>
       </c>
@@ -8836,8 +8968,11 @@
       <c r="D218" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="E218" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219" s="1">
         <v>1350</v>
       </c>
@@ -8850,8 +8985,11 @@
       <c r="D219" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="220" spans="1:4">
+      <c r="E219" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220" s="1">
         <v>1408</v>
       </c>
@@ -8864,8 +9002,11 @@
       <c r="D220" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
+      <c r="E220" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221" s="1">
         <v>1496</v>
       </c>
@@ -8878,8 +9019,11 @@
       <c r="D221" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="222" spans="1:4">
+      <c r="E221" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222" s="1">
         <v>1502</v>
       </c>
@@ -8892,8 +9036,11 @@
       <c r="D222" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
+      <c r="E222" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223" s="1">
         <v>200</v>
       </c>
@@ -8906,8 +9053,11 @@
       <c r="D223" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="E223" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" s="1">
         <v>146</v>
       </c>
@@ -8920,8 +9070,11 @@
       <c r="D224" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="E224" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" s="1">
         <v>973</v>
       </c>
@@ -8934,8 +9087,11 @@
       <c r="D225" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
+      <c r="E225" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" s="1">
         <v>138</v>
       </c>
@@ -8948,8 +9104,11 @@
       <c r="D226" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="E226" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" s="1">
         <v>5</v>
       </c>
@@ -8962,8 +9121,11 @@
       <c r="D227" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="228" spans="1:4">
+      <c r="E227" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" s="1">
         <v>994</v>
       </c>
@@ -8977,7 +9139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:5">
       <c r="A229" s="1">
         <v>763</v>
       </c>
@@ -8991,7 +9153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:5">
       <c r="A230" s="1">
         <v>2</v>
       </c>
@@ -9005,7 +9167,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:5">
       <c r="A231" s="1">
         <v>127</v>
       </c>
@@ -9019,7 +9181,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:5">
       <c r="A232" s="1">
         <v>692</v>
       </c>
@@ -9033,7 +9195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:5">
       <c r="A233" s="1">
         <v>240</v>
       </c>
@@ -9047,7 +9209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:5">
       <c r="A234" s="1">
         <v>957</v>
       </c>
@@ -9061,7 +9223,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:5">
       <c r="A235" s="1">
         <v>3</v>
       </c>
@@ -9075,7 +9237,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:5">
       <c r="A236" s="1">
         <v>253</v>
       </c>
@@ -9089,7 +9251,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:5">
       <c r="A237" s="1">
         <v>17</v>
       </c>
@@ -9103,7 +9265,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:5">
       <c r="A238" s="1">
         <v>348</v>
       </c>
@@ -9117,7 +9279,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:5">
       <c r="A239" s="1">
         <v>139</v>
       </c>
@@ -9131,7 +9293,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:5">
       <c r="A240" s="1">
         <v>48</v>
       </c>
@@ -16722,13 +16884,13 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C2:C781">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16745,7 +16907,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Tree">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Tree">
       <formula>NOT(ISERROR(SEARCH("Tree",B1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Question/Only_Amazon.xlsx
+++ b/Question/Only_Amazon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC47F69-B8CE-4775-B772-0C382BFEE43D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76B5754-B8C2-4733-B703-EEFCE9CB5EDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{03F0B197-2B7A-4F3C-AD55-70E8FD3568F4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2573" uniqueCount="1570">
   <si>
     <t>Reorder Data in Log Files</t>
   </si>
@@ -5252,7 +5252,7 @@
   <dimension ref="A1:K781"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D215" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D228" sqref="D228"/>
+      <selection activeCell="D229" sqref="D229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9137,6 +9137,9 @@
       </c>
       <c r="D228" t="s">
         <v>10</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>1569</v>
       </c>
     </row>
     <row r="229" spans="1:5">

--- a/Question/Only_Amazon.xlsx
+++ b/Question/Only_Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C189237-75A4-46EA-BA50-6CC3E52FA791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B97883-04B5-4876-AD1B-259CECF24C6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03F0B197-2B7A-4F3C-AD55-70E8FD3568F4}"/>
   </bookViews>

--- a/Question/Only_Amazon.xlsx
+++ b/Question/Only_Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B97883-04B5-4876-AD1B-259CECF24C6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E81AA9-B205-469A-A3F6-5340025F2DDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03F0B197-2B7A-4F3C-AD55-70E8FD3568F4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="1570">
   <si>
     <t>Reorder Data in Log Files</t>
   </si>
@@ -4965,6 +4965,14 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -4977,14 +4985,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5041,16 +5041,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E9B5B2C-7729-4F9E-A40A-B99A83B3B492}" name="Table1" displayName="Table1" ref="A1:E781" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E9B5B2C-7729-4F9E-A40A-B99A83B3B492}" name="Table1" displayName="Table1" ref="A1:E781" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:E781" xr:uid="{24D7DA6A-02BD-4BE7-8A50-75507A040CED}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D781">
-    <sortCondition sortBy="cellColor" ref="C1:C781" dxfId="4"/>
+    <sortCondition sortBy="cellColor" ref="C1:C781" dxfId="3"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{33CBD092-269F-4615-A53B-C4287FF6F884}" name="Sr.No" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{64055A60-A890-46B5-8A1B-D7095982C783}" name="Name" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{64055A60-A890-46B5-8A1B-D7095982C783}" name="Name" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{178C19E2-A0BB-4E7C-829B-7FDBB863C057}" name="Difficulty"/>
-    <tableColumn id="6" xr3:uid="{70A7CE9C-1A58-41A1-9FFE-5E9C48C60FEA}" name="Url" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{70A7CE9C-1A58-41A1-9FFE-5E9C48C60FEA}" name="Url" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{C4256965-4D97-43B8-A787-22FDAA76D842}" name="Done"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5356,8 +5356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978693D1-CBC7-456F-A7AE-FF0803AD55CD}">
   <dimension ref="A1:K781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="D257" sqref="D257"/>
+    <sheetView tabSelected="1" topLeftCell="C241" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="H265" sqref="H265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9753,6 +9753,9 @@
       <c r="D258" s="6" t="s">
         <v>90</v>
       </c>
+      <c r="E258" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="1">
@@ -9767,6 +9770,9 @@
       <c r="D259" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="E259" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="1">
@@ -9781,6 +9787,9 @@
       <c r="D260" s="6" t="s">
         <v>264</v>
       </c>
+      <c r="E260" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="1">
@@ -9795,6 +9804,9 @@
       <c r="D261" s="6" t="s">
         <v>248</v>
       </c>
+      <c r="E261" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="1">
@@ -9809,6 +9821,9 @@
       <c r="D262" s="6" t="s">
         <v>288</v>
       </c>
+      <c r="E262" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="1">
@@ -9823,6 +9838,9 @@
       <c r="D263" s="6" t="s">
         <v>114</v>
       </c>
+      <c r="E263" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="1">
@@ -9837,6 +9855,9 @@
       <c r="D264" s="6" t="s">
         <v>158</v>
       </c>
+      <c r="E264" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="1">
@@ -9850,6 +9871,9 @@
       </c>
       <c r="D265" s="6" t="s">
         <v>174</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>1569</v>
       </c>
     </row>
     <row r="266" spans="1:5">

--- a/Question/Only_Amazon.xlsx
+++ b/Question/Only_Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E81AA9-B205-469A-A3F6-5340025F2DDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB00D35C-5F2C-43D0-894A-0D395D90C29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03F0B197-2B7A-4F3C-AD55-70E8FD3568F4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="1570">
   <si>
     <t>Reorder Data in Log Files</t>
   </si>
@@ -5356,8 +5356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978693D1-CBC7-456F-A7AE-FF0803AD55CD}">
   <dimension ref="A1:K781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C241" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="H265" sqref="H265"/>
+    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="D276" sqref="D276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9889,6 +9889,9 @@
       <c r="D266" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="E266" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="1">
@@ -9903,6 +9906,9 @@
       <c r="D267" s="6" t="s">
         <v>244</v>
       </c>
+      <c r="E267" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="1">
@@ -9917,6 +9923,9 @@
       <c r="D268" s="6" t="s">
         <v>542</v>
       </c>
+      <c r="E268" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="1">
@@ -9931,6 +9940,9 @@
       <c r="D269" s="6" t="s">
         <v>282</v>
       </c>
+      <c r="E269" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="1">
@@ -9945,6 +9957,9 @@
       <c r="D270" s="6" t="s">
         <v>272</v>
       </c>
+      <c r="E270" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="1">
@@ -9959,6 +9974,9 @@
       <c r="D271" s="6" t="s">
         <v>188</v>
       </c>
+      <c r="E271" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="1">
@@ -9973,8 +9991,11 @@
       <c r="D272" s="6" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="273" spans="1:4">
+      <c r="E272" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
       <c r="A273" s="1">
         <v>215</v>
       </c>
@@ -9987,8 +10008,11 @@
       <c r="D273" s="6" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="274" spans="1:4">
+      <c r="E273" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
       <c r="A274" s="1">
         <v>102</v>
       </c>
@@ -10001,8 +10025,11 @@
       <c r="D274" s="6" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="275" spans="1:4">
+      <c r="E274" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
       <c r="A275" s="1">
         <v>207</v>
       </c>
@@ -10015,8 +10042,11 @@
       <c r="D275" s="6" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="276" spans="1:4">
+      <c r="E275" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
       <c r="A276" s="1">
         <v>91</v>
       </c>
@@ -10029,8 +10059,11 @@
       <c r="D276" s="6" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="277" spans="1:4">
+      <c r="E276" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
       <c r="A277" s="1">
         <v>64</v>
       </c>
@@ -10044,7 +10077,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:5">
       <c r="A278" s="1">
         <v>866</v>
       </c>
@@ -10058,7 +10091,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:5">
       <c r="A279" s="1">
         <v>227</v>
       </c>
@@ -10072,7 +10105,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:5">
       <c r="A280" s="1">
         <v>117</v>
       </c>
@@ -10086,7 +10119,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:5">
       <c r="A281" s="1">
         <v>505</v>
       </c>
@@ -10100,7 +10133,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:5">
       <c r="A282" s="1">
         <v>449</v>
       </c>
@@ -10114,7 +10147,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:5">
       <c r="A283" s="1">
         <v>55</v>
       </c>
@@ -10128,7 +10161,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:5">
       <c r="A284" s="1">
         <v>695</v>
       </c>
@@ -10142,7 +10175,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:5">
       <c r="A285" s="1">
         <v>362</v>
       </c>
@@ -10156,7 +10189,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:5">
       <c r="A286" s="1">
         <v>93</v>
       </c>
@@ -10170,7 +10203,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:5">
       <c r="A287" s="1">
         <v>74</v>
       </c>
@@ -10184,7 +10217,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:5">
       <c r="A288" s="1">
         <v>8</v>
       </c>

--- a/Question/Only_Amazon.xlsx
+++ b/Question/Only_Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB00D35C-5F2C-43D0-894A-0D395D90C29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B64648-2877-4CC9-9DBD-403CFBCF963B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03F0B197-2B7A-4F3C-AD55-70E8FD3568F4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="1570">
   <si>
     <t>Reorder Data in Log Files</t>
   </si>
@@ -5356,8 +5356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978693D1-CBC7-456F-A7AE-FF0803AD55CD}">
   <dimension ref="A1:K781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="D276" sqref="D276"/>
+    <sheetView tabSelected="1" topLeftCell="A287" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="D309" sqref="D309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10076,6 +10076,9 @@
       <c r="D277" s="6" t="s">
         <v>184</v>
       </c>
+      <c r="E277" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="1">
@@ -10090,6 +10093,9 @@
       <c r="D278" s="6" t="s">
         <v>74</v>
       </c>
+      <c r="E278" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="1">
@@ -10104,6 +10110,9 @@
       <c r="D279" s="6" t="s">
         <v>134</v>
       </c>
+      <c r="E279" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="1">
@@ -10118,6 +10127,9 @@
       <c r="D280" s="6" t="s">
         <v>502</v>
       </c>
+      <c r="E280" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="1">
@@ -10132,6 +10144,9 @@
       <c r="D281" s="6" t="s">
         <v>1214</v>
       </c>
+      <c r="E281" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="1">
@@ -10146,6 +10161,9 @@
       <c r="D282" s="6" t="s">
         <v>196</v>
       </c>
+      <c r="E282" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="1">
@@ -10160,6 +10178,9 @@
       <c r="D283" s="6" t="s">
         <v>232</v>
       </c>
+      <c r="E283" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="1">
@@ -10174,6 +10195,9 @@
       <c r="D284" s="6" t="s">
         <v>382</v>
       </c>
+      <c r="E284" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="1">
@@ -10188,6 +10212,9 @@
       <c r="D285" s="6" t="s">
         <v>236</v>
       </c>
+      <c r="E285" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="1">
@@ -10202,6 +10229,9 @@
       <c r="D286" s="6" t="s">
         <v>250</v>
       </c>
+      <c r="E286" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="1">
@@ -10216,6 +10246,9 @@
       <c r="D287" s="6" t="s">
         <v>128</v>
       </c>
+      <c r="E287" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="1">
@@ -10230,8 +10263,11 @@
       <c r="D288" s="6" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="289" spans="1:4">
+      <c r="E288" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
       <c r="A289" s="1">
         <v>1102</v>
       </c>
@@ -10244,8 +10280,11 @@
       <c r="D289" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="290" spans="1:4">
+      <c r="E289" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
       <c r="A290" s="1">
         <v>221</v>
       </c>
@@ -10258,8 +10297,11 @@
       <c r="D290" s="6" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="291" spans="1:4">
+      <c r="E290" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
       <c r="A291" s="1">
         <v>173</v>
       </c>
@@ -10272,8 +10314,11 @@
       <c r="D291" s="6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="292" spans="1:4">
+      <c r="E291" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
       <c r="A292" s="1">
         <v>445</v>
       </c>
@@ -10286,8 +10331,11 @@
       <c r="D292" s="6" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="293" spans="1:4">
+      <c r="E292" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
       <c r="A293" s="1">
         <v>143</v>
       </c>
@@ -10300,8 +10348,11 @@
       <c r="D293" s="6" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="294" spans="1:4">
+      <c r="E293" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
       <c r="A294" s="1">
         <v>31</v>
       </c>
@@ -10314,8 +10365,11 @@
       <c r="D294" s="6" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="295" spans="1:4">
+      <c r="E294" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
       <c r="A295" s="1">
         <v>134</v>
       </c>
@@ -10328,8 +10382,11 @@
       <c r="D295" s="6" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="296" spans="1:4">
+      <c r="E295" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
       <c r="A296" s="1">
         <v>199</v>
       </c>
@@ -10342,8 +10399,11 @@
       <c r="D296" s="6" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="297" spans="1:4">
+      <c r="E296" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
       <c r="A297" s="1">
         <v>79</v>
       </c>
@@ -10356,8 +10416,11 @@
       <c r="D297" s="6" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="298" spans="1:4">
+      <c r="E297" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
       <c r="A298" s="1">
         <v>347</v>
       </c>
@@ -10370,8 +10433,11 @@
       <c r="D298" s="6" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="299" spans="1:4">
+      <c r="E298" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
       <c r="A299" s="1">
         <v>62</v>
       </c>
@@ -10384,8 +10450,11 @@
       <c r="D299" s="6" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="300" spans="1:4">
+      <c r="E299" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
       <c r="A300" s="1">
         <v>394</v>
       </c>
@@ -10398,8 +10467,11 @@
       <c r="D300" s="6" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="301" spans="1:4">
+      <c r="E300" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
       <c r="A301" s="1">
         <v>353</v>
       </c>
@@ -10412,8 +10484,11 @@
       <c r="D301" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="302" spans="1:4">
+      <c r="E301" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
       <c r="A302" s="1">
         <v>384</v>
       </c>
@@ -10426,8 +10501,11 @@
       <c r="D302" s="6" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="303" spans="1:4">
+      <c r="E302" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
       <c r="A303" s="1">
         <v>323</v>
       </c>
@@ -10440,8 +10518,11 @@
       <c r="D303" s="6" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="304" spans="1:4">
+      <c r="E303" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
       <c r="A304" s="1">
         <v>133</v>
       </c>
@@ -10454,8 +10535,11 @@
       <c r="D304" s="6" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="305" spans="1:4">
+      <c r="E304" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
       <c r="A305" s="1">
         <v>281</v>
       </c>
@@ -10468,8 +10552,11 @@
       <c r="D305" s="6" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="306" spans="1:4">
+      <c r="E305" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
       <c r="A306" s="1">
         <v>1091</v>
       </c>
@@ -10482,8 +10569,11 @@
       <c r="D306" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="307" spans="1:4">
+      <c r="E306" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
       <c r="A307" s="1">
         <v>1120</v>
       </c>
@@ -10496,8 +10586,11 @@
       <c r="D307" s="6" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="308" spans="1:4">
+      <c r="E307" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
       <c r="A308" s="1">
         <v>150</v>
       </c>
@@ -10510,8 +10603,11 @@
       <c r="D308" s="6" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="309" spans="1:4">
+      <c r="E308" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
       <c r="A309" s="1">
         <v>71</v>
       </c>
@@ -10524,8 +10620,11 @@
       <c r="D309" s="6" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="310" spans="1:4">
+      <c r="E309" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
       <c r="A310" s="1">
         <v>96</v>
       </c>
@@ -10539,7 +10638,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:5">
       <c r="A311" s="1">
         <v>417</v>
       </c>
@@ -10553,7 +10652,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:5">
       <c r="A312" s="1">
         <v>286</v>
       </c>
@@ -10567,7 +10666,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:5">
       <c r="A313" s="1">
         <v>640</v>
       </c>
@@ -10581,7 +10680,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:5">
       <c r="A314" s="1">
         <v>39</v>
       </c>
@@ -10595,7 +10694,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:5">
       <c r="A315" s="1">
         <v>59</v>
       </c>
@@ -10609,7 +10708,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:5">
       <c r="A316" s="1">
         <v>529</v>
       </c>
@@ -10623,7 +10722,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:5">
       <c r="A317" s="1">
         <v>152</v>
       </c>
@@ -10637,7 +10736,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:5">
       <c r="A318" s="1">
         <v>503</v>
       </c>
@@ -10651,7 +10750,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:5">
       <c r="A319" s="1">
         <v>210</v>
       </c>
@@ -10665,7 +10764,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:5">
       <c r="A320" s="1">
         <v>78</v>
       </c>

--- a/Question/Only_Amazon.xlsx
+++ b/Question/Only_Amazon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B64648-2877-4CC9-9DBD-403CFBCF963B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90341249-A389-4D1B-85AE-4463ADDB3078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03F0B197-2B7A-4F3C-AD55-70E8FD3568F4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{03F0B197-2B7A-4F3C-AD55-70E8FD3568F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5356,8 +5356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978693D1-CBC7-456F-A7AE-FF0803AD55CD}">
   <dimension ref="A1:K781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="D309" sqref="D309"/>
+    <sheetView tabSelected="1" topLeftCell="C299" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="D323" sqref="D323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Question/Only_Amazon.xlsx
+++ b/Question/Only_Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90341249-A389-4D1B-85AE-4463ADDB3078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C444C8-DA3C-411B-89A4-BF8C446E3071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{03F0B197-2B7A-4F3C-AD55-70E8FD3568F4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="1570">
   <si>
     <t>Reorder Data in Log Files</t>
   </si>
@@ -5356,8 +5356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978693D1-CBC7-456F-A7AE-FF0803AD55CD}">
   <dimension ref="A1:K781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C299" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="D323" sqref="D323"/>
+    <sheetView tabSelected="1" topLeftCell="D299" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="E313" sqref="E313:E323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10637,6 +10637,9 @@
       <c r="D310" s="6" t="s">
         <v>458</v>
       </c>
+      <c r="E310" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="1">
@@ -10651,6 +10654,9 @@
       <c r="D311" s="6" t="s">
         <v>422</v>
       </c>
+      <c r="E311" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="1">
@@ -10665,6 +10671,9 @@
       <c r="D312" s="6" t="s">
         <v>452</v>
       </c>
+      <c r="E312" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="1">
@@ -10679,6 +10688,9 @@
       <c r="D313" s="6" t="s">
         <v>206</v>
       </c>
+      <c r="E313" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="1">
@@ -10693,6 +10705,9 @@
       <c r="D314" s="6" t="s">
         <v>362</v>
       </c>
+      <c r="E314" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="1">
@@ -10707,6 +10722,9 @@
       <c r="D315" s="6" t="s">
         <v>550</v>
       </c>
+      <c r="E315" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="1">
@@ -10721,6 +10739,9 @@
       <c r="D316" s="6" t="s">
         <v>366</v>
       </c>
+      <c r="E316" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="1">
@@ -10735,6 +10756,9 @@
       <c r="D317" s="6" t="s">
         <v>494</v>
       </c>
+      <c r="E317" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="1">
@@ -10749,6 +10773,9 @@
       <c r="D318" s="6" t="s">
         <v>156</v>
       </c>
+      <c r="E318" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="1">
@@ -10763,6 +10790,9 @@
       <c r="D319" s="6" t="s">
         <v>212</v>
       </c>
+      <c r="E319" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="1">
@@ -10777,8 +10807,11 @@
       <c r="D320" s="6" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="321" spans="1:4">
+      <c r="E320" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
       <c r="A321" s="1">
         <v>211</v>
       </c>
@@ -10791,8 +10824,11 @@
       <c r="D321" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="322" spans="1:4">
+      <c r="E321" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
       <c r="A322" s="1">
         <v>92</v>
       </c>
@@ -10805,8 +10841,11 @@
       <c r="D322" s="6" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="323" spans="1:4">
+      <c r="E322" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
       <c r="A323" s="1">
         <v>1155</v>
       </c>
@@ -10819,8 +10858,11 @@
       <c r="D323" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="324" spans="1:4">
+      <c r="E323" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
       <c r="A324" s="1">
         <v>36</v>
       </c>
@@ -10833,8 +10875,11 @@
       <c r="D324" s="6" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="325" spans="1:4">
+      <c r="E324" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
       <c r="A325" s="1">
         <v>261</v>
       </c>
@@ -10848,7 +10893,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:5">
       <c r="A326" s="1">
         <v>75</v>
       </c>
@@ -10862,7 +10907,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:5">
       <c r="A327" s="1">
         <v>332</v>
       </c>
@@ -10876,7 +10921,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:5">
       <c r="A328" s="1">
         <v>388</v>
       </c>
@@ -10890,7 +10935,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:5">
       <c r="A329" s="1">
         <v>153</v>
       </c>
@@ -10904,7 +10949,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:5">
       <c r="A330" s="1">
         <v>46</v>
       </c>
@@ -10918,7 +10963,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:5">
       <c r="A331" s="1">
         <v>560</v>
       </c>
@@ -10932,7 +10977,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:5">
       <c r="A332" s="1">
         <v>228</v>
       </c>
@@ -10946,7 +10991,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:5">
       <c r="A333" s="1">
         <v>19</v>
       </c>
@@ -10960,7 +11005,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:5">
       <c r="A334" s="1">
         <v>109</v>
       </c>
@@ -10974,7 +11019,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:5">
       <c r="A335" s="1">
         <v>177</v>
       </c>
@@ -10988,7 +11033,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:5">
       <c r="A336" s="1">
         <v>767</v>
       </c>

--- a/Question/Only_Amazon.xlsx
+++ b/Question/Only_Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C444C8-DA3C-411B-89A4-BF8C446E3071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA87FEEB-BD9E-4911-B3D2-0700D68F5CC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{03F0B197-2B7A-4F3C-AD55-70E8FD3568F4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="1570">
   <si>
     <t>Reorder Data in Log Files</t>
   </si>
@@ -4741,7 +4741,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4780,6 +4780,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -4851,7 +4859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4865,6 +4873,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5356,8 +5365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978693D1-CBC7-456F-A7AE-FF0803AD55CD}">
   <dimension ref="A1:K781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D299" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="E313" sqref="E313:E323"/>
+    <sheetView tabSelected="1" topLeftCell="C334" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="E341" sqref="E341:E357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10892,6 +10901,9 @@
       <c r="D325" s="6" t="s">
         <v>418</v>
       </c>
+      <c r="E325" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="1">
@@ -10906,6 +10918,9 @@
       <c r="D326" s="6" t="s">
         <v>338</v>
       </c>
+      <c r="E326" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="1">
@@ -10920,6 +10935,9 @@
       <c r="D327" s="6" t="s">
         <v>354</v>
       </c>
+      <c r="E327" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="1">
@@ -10934,6 +10952,9 @@
       <c r="D328" s="6" t="s">
         <v>276</v>
       </c>
+      <c r="E328" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="1">
@@ -10948,6 +10969,9 @@
       <c r="D329" s="6" t="s">
         <v>464</v>
       </c>
+      <c r="E329" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="1">
@@ -10962,6 +10986,9 @@
       <c r="D330" s="6" t="s">
         <v>312</v>
       </c>
+      <c r="E330" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="1">
@@ -10976,6 +11003,9 @@
       <c r="D331" s="6" t="s">
         <v>376</v>
       </c>
+      <c r="E331" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="1">
@@ -10990,6 +11020,9 @@
       <c r="D332" s="6" t="s">
         <v>850</v>
       </c>
+      <c r="E332" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="1">
@@ -11004,6 +11037,9 @@
       <c r="D333" s="6" t="s">
         <v>432</v>
       </c>
+      <c r="E333" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="1">
@@ -11018,6 +11054,9 @@
       <c r="D334" s="6" t="s">
         <v>224</v>
       </c>
+      <c r="E334" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="1">
@@ -11032,6 +11071,9 @@
       <c r="D335" s="6" t="s">
         <v>446</v>
       </c>
+      <c r="E335" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="1">
@@ -11046,8 +11088,11 @@
       <c r="D336" s="6" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="337" spans="1:4">
+      <c r="E336" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
       <c r="A337" s="1">
         <v>179</v>
       </c>
@@ -11060,8 +11105,11 @@
       <c r="D337" s="6" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="338" spans="1:4">
+      <c r="E337" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
       <c r="A338" s="1">
         <v>739</v>
       </c>
@@ -11074,8 +11122,11 @@
       <c r="D338" s="6" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="339" spans="1:4">
+      <c r="E338" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
       <c r="A339" s="1">
         <v>333</v>
       </c>
@@ -11088,8 +11139,11 @@
       <c r="D339" s="6" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="340" spans="1:4">
+      <c r="E339" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
       <c r="A340" s="1">
         <v>983</v>
       </c>
@@ -11102,8 +11156,11 @@
       <c r="D340" s="6" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="341" spans="1:4">
+      <c r="E340" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
       <c r="A341" s="1">
         <v>284</v>
       </c>
@@ -11116,8 +11173,11 @@
       <c r="D341" s="6" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="342" spans="1:4">
+      <c r="E341" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
       <c r="A342" s="1">
         <v>987</v>
       </c>
@@ -11130,8 +11190,11 @@
       <c r="D342" s="6" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="343" spans="1:4">
+      <c r="E342" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
       <c r="A343" s="1">
         <v>1135</v>
       </c>
@@ -11144,8 +11207,11 @@
       <c r="D343" s="6" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="344" spans="1:4">
+      <c r="E343" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
       <c r="A344" s="1">
         <v>24</v>
       </c>
@@ -11158,8 +11224,11 @@
       <c r="D344" s="6" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="345" spans="1:4">
+      <c r="E344" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
       <c r="A345" s="1">
         <v>437</v>
       </c>
@@ -11172,8 +11241,11 @@
       <c r="D345" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="346" spans="1:4">
+      <c r="E345" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
       <c r="A346" s="1">
         <v>300</v>
       </c>
@@ -11186,8 +11258,11 @@
       <c r="D346" s="6" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="347" spans="1:4">
+      <c r="E346" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
       <c r="A347" s="1">
         <v>456</v>
       </c>
@@ -11200,8 +11275,11 @@
       <c r="D347" s="6" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="348" spans="1:4">
+      <c r="E347" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
       <c r="A348" s="1">
         <v>113</v>
       </c>
@@ -11214,8 +11292,11 @@
       <c r="D348" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="349" spans="1:4">
+      <c r="E348" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
       <c r="A349" s="1">
         <v>285</v>
       </c>
@@ -11228,12 +11309,15 @@
       <c r="D349" s="6" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="350" spans="1:4">
+      <c r="E349" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
       <c r="A350" s="1">
         <v>373</v>
       </c>
-      <c r="B350" s="6" t="s">
+      <c r="B350" s="7" t="s">
         <v>489</v>
       </c>
       <c r="C350" t="s">
@@ -11242,8 +11326,11 @@
       <c r="D350" s="6" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="351" spans="1:4">
+      <c r="E350" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
       <c r="A351" s="1">
         <v>16</v>
       </c>
@@ -11256,8 +11343,11 @@
       <c r="D351" s="6" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="352" spans="1:4">
+      <c r="E351" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
       <c r="A352" s="1">
         <v>556</v>
       </c>
@@ -11270,8 +11360,11 @@
       <c r="D352" s="6" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="353" spans="1:4">
+      <c r="E352" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
       <c r="A353" s="1">
         <v>148</v>
       </c>
@@ -11284,8 +11377,11 @@
       <c r="D353" s="6" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="354" spans="1:4">
+      <c r="E353" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
       <c r="A354" s="1">
         <v>287</v>
       </c>
@@ -11298,8 +11394,11 @@
       <c r="D354" s="6" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="355" spans="1:4">
+      <c r="E354" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
       <c r="A355" s="1">
         <v>518</v>
       </c>
@@ -11312,8 +11411,11 @@
       <c r="D355" s="6" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="356" spans="1:4">
+      <c r="E355" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
       <c r="A356" s="1">
         <v>120</v>
       </c>
@@ -11326,8 +11428,11 @@
       <c r="D356" s="6" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="357" spans="1:4">
+      <c r="E356" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
       <c r="A357" s="1">
         <v>18</v>
       </c>
@@ -11340,8 +11445,11 @@
       <c r="D357" s="6" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="358" spans="1:4">
+      <c r="E357" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
       <c r="A358" s="1">
         <v>378</v>
       </c>
@@ -11355,7 +11463,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:5">
       <c r="A359" s="1">
         <v>540</v>
       </c>
@@ -11369,7 +11477,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:5">
       <c r="A360" s="1">
         <v>63</v>
       </c>
@@ -11383,7 +11491,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:5">
       <c r="A361" s="1">
         <v>73</v>
       </c>
@@ -11397,7 +11505,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:5">
       <c r="A362" s="1">
         <v>442</v>
       </c>
@@ -11411,7 +11519,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:5">
       <c r="A363" s="1">
         <v>229</v>
       </c>
@@ -11425,7 +11533,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:5">
       <c r="A364" s="1">
         <v>787</v>
       </c>
@@ -11439,7 +11547,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:5">
       <c r="A365" s="1">
         <v>325</v>
       </c>
@@ -11453,7 +11561,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:5">
       <c r="A366" s="1">
         <v>298</v>
       </c>
@@ -11467,7 +11575,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:5">
       <c r="A367" s="1">
         <v>636</v>
       </c>
@@ -11481,7 +11589,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:5">
       <c r="A368" s="1">
         <v>369</v>
       </c>

--- a/Question/Only_Amazon.xlsx
+++ b/Question/Only_Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA87FEEB-BD9E-4911-B3D2-0700D68F5CC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8760E7-AEDA-4C70-82E2-F747AD750601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{03F0B197-2B7A-4F3C-AD55-70E8FD3568F4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="1570">
   <si>
     <t>Reorder Data in Log Files</t>
   </si>
@@ -5365,8 +5365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978693D1-CBC7-456F-A7AE-FF0803AD55CD}">
   <dimension ref="A1:K781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C334" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="E341" sqref="E341:E357"/>
+    <sheetView tabSelected="1" topLeftCell="C342" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="E357" sqref="E357:E371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11462,6 +11462,9 @@
       <c r="D358" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="E358" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="1">
@@ -11476,6 +11479,9 @@
       <c r="D359" s="6" t="s">
         <v>590</v>
       </c>
+      <c r="E359" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="1">
@@ -11490,6 +11496,9 @@
       <c r="D360" s="6" t="s">
         <v>518</v>
       </c>
+      <c r="E360" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="1">
@@ -11504,6 +11513,9 @@
       <c r="D361" s="6" t="s">
         <v>532</v>
       </c>
+      <c r="E361" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="1">
@@ -11518,6 +11530,9 @@
       <c r="D362" s="6" t="s">
         <v>492</v>
       </c>
+      <c r="E362" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="1">
@@ -11532,6 +11547,9 @@
       <c r="D363" s="6" t="s">
         <v>498</v>
       </c>
+      <c r="E363" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="1">
@@ -11546,6 +11564,9 @@
       <c r="D364" s="6" t="s">
         <v>690</v>
       </c>
+      <c r="E364" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="1">
@@ -11560,6 +11581,9 @@
       <c r="D365" s="6" t="s">
         <v>996</v>
       </c>
+      <c r="E365" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="1">
@@ -11574,6 +11598,9 @@
       <c r="D366" s="6" t="s">
         <v>886</v>
       </c>
+      <c r="E366" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="1">
@@ -11588,6 +11615,9 @@
       <c r="D367" s="6" t="s">
         <v>562</v>
       </c>
+      <c r="E367" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="1">
@@ -11602,8 +11632,11 @@
       <c r="D368" s="6" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="369" spans="1:4">
+      <c r="E368" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
       <c r="A369" s="1">
         <v>652</v>
       </c>
@@ -11616,8 +11649,11 @@
       <c r="D369" s="6" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="370" spans="1:4">
+      <c r="E369" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
       <c r="A370" s="1">
         <v>6</v>
       </c>
@@ -11630,8 +11666,11 @@
       <c r="D370" s="6" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="371" spans="1:4">
+      <c r="E370" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
       <c r="A371" s="1">
         <v>399</v>
       </c>
@@ -11644,8 +11683,11 @@
       <c r="D371" s="6" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="372" spans="1:4">
+      <c r="E371" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
       <c r="A372" s="1">
         <v>516</v>
       </c>
@@ -11659,7 +11701,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:5">
       <c r="A373" s="1">
         <v>678</v>
       </c>
@@ -11673,7 +11715,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:5">
       <c r="A374" s="1">
         <v>688</v>
       </c>
@@ -11687,7 +11729,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:5">
       <c r="A375" s="1">
         <v>981</v>
       </c>
@@ -11701,7 +11743,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:5">
       <c r="A376" s="1">
         <v>1011</v>
       </c>
@@ -11715,7 +11757,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:5">
       <c r="A377" s="1">
         <v>29</v>
       </c>
@@ -11729,7 +11771,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:5">
       <c r="A378" s="1">
         <v>1038</v>
       </c>
@@ -11743,7 +11785,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:5">
       <c r="A379" s="1">
         <v>1100</v>
       </c>
@@ -11757,7 +11799,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:5">
       <c r="A380" s="1">
         <v>50</v>
       </c>
@@ -11771,7 +11813,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:5">
       <c r="A381" s="1">
         <v>230</v>
       </c>
@@ -11785,7 +11827,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:5">
       <c r="A382" s="1">
         <v>721</v>
       </c>
@@ -11799,7 +11841,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:5">
       <c r="A383" s="1">
         <v>622</v>
       </c>
@@ -11813,7 +11855,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:5">
       <c r="A384" s="1">
         <v>542</v>
       </c>

--- a/Question/Only_Amazon.xlsx
+++ b/Question/Only_Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8760E7-AEDA-4C70-82E2-F747AD750601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB55241A-5408-4512-93DD-FB0A50BE58B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{03F0B197-2B7A-4F3C-AD55-70E8FD3568F4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="1570">
   <si>
     <t>Reorder Data in Log Files</t>
   </si>
@@ -5365,8 +5365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978693D1-CBC7-456F-A7AE-FF0803AD55CD}">
   <dimension ref="A1:K781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C342" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="E357" sqref="E357:E371"/>
+    <sheetView tabSelected="1" topLeftCell="C351" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="E371" sqref="E371:E377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11700,6 +11700,9 @@
       <c r="D372" s="6" t="s">
         <v>756</v>
       </c>
+      <c r="E372" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="1">
@@ -11714,6 +11717,9 @@
       <c r="D373" s="6" t="s">
         <v>540</v>
       </c>
+      <c r="E373" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="1">
@@ -11728,6 +11734,9 @@
       <c r="D374" s="6" t="s">
         <v>330</v>
       </c>
+      <c r="E374" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="1">
@@ -11742,6 +11751,9 @@
       <c r="D375" s="6" t="s">
         <v>148</v>
       </c>
+      <c r="E375" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="1">
@@ -11756,6 +11768,9 @@
       <c r="D376" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="E376" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="1">
@@ -11769,6 +11784,9 @@
       </c>
       <c r="D377" s="6" t="s">
         <v>482</v>
+      </c>
+      <c r="E377" s="5" t="s">
+        <v>1569</v>
       </c>
     </row>
     <row r="378" spans="1:5">

--- a/Question/Only_Amazon.xlsx
+++ b/Question/Only_Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB55241A-5408-4512-93DD-FB0A50BE58B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE290C9B-24AB-4D4C-92FE-E476576626D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{03F0B197-2B7A-4F3C-AD55-70E8FD3568F4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="1570">
   <si>
     <t>Reorder Data in Log Files</t>
   </si>
@@ -5365,8 +5365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978693D1-CBC7-456F-A7AE-FF0803AD55CD}">
   <dimension ref="A1:K781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C351" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="E371" sqref="E371:E377"/>
+    <sheetView tabSelected="1" topLeftCell="D375" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="E389" sqref="E389:E395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11802,6 +11802,9 @@
       <c r="D378" s="6" t="s">
         <v>204</v>
       </c>
+      <c r="E378" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="1">
@@ -11816,6 +11819,9 @@
       <c r="D379" s="6" t="s">
         <v>358</v>
       </c>
+      <c r="E379" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="1">
@@ -11830,6 +11836,9 @@
       <c r="D380" s="6" t="s">
         <v>874</v>
       </c>
+      <c r="E380" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="1">
@@ -11844,6 +11853,9 @@
       <c r="D381" s="6" t="s">
         <v>554</v>
       </c>
+      <c r="E381" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="1">
@@ -11858,6 +11870,9 @@
       <c r="D382" s="6" t="s">
         <v>228</v>
       </c>
+      <c r="E382" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="1">
@@ -11872,6 +11887,9 @@
       <c r="D383" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="E383" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="1">
@@ -11886,8 +11904,11 @@
       <c r="D384" s="6" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="385" spans="1:4">
+      <c r="E384" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
       <c r="A385" s="1">
         <v>426</v>
       </c>
@@ -11900,8 +11921,11 @@
       <c r="D385" s="6" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="386" spans="1:4">
+      <c r="E385" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
       <c r="A386" s="1">
         <v>794</v>
       </c>
@@ -11914,8 +11938,11 @@
       <c r="D386" s="6" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="387" spans="1:4">
+      <c r="E386" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
       <c r="A387" s="1">
         <v>430</v>
       </c>
@@ -11928,8 +11955,11 @@
       <c r="D387" s="6" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="388" spans="1:4">
+      <c r="E387" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
       <c r="A388" s="1">
         <v>130</v>
       </c>
@@ -11942,8 +11972,11 @@
       <c r="D388" s="6" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="389" spans="1:4">
+      <c r="E388" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
       <c r="A389" s="1">
         <v>94</v>
       </c>
@@ -11956,8 +11989,11 @@
       <c r="D389" s="6" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="390" spans="1:4">
+      <c r="E389" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
       <c r="A390" s="1">
         <v>131</v>
       </c>
@@ -11970,8 +12006,11 @@
       <c r="D390" s="6" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="391" spans="1:4">
+      <c r="E390" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
       <c r="A391" s="1">
         <v>81</v>
       </c>
@@ -11984,8 +12023,11 @@
       <c r="D391" s="6" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="392" spans="1:4">
+      <c r="E391" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
       <c r="A392" s="1">
         <v>187</v>
       </c>
@@ -11998,8 +12040,11 @@
       <c r="D392" s="6" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="393" spans="1:4">
+      <c r="E392" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
       <c r="A393" s="1">
         <v>498</v>
       </c>
@@ -12012,8 +12057,11 @@
       <c r="D393" s="6" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="394" spans="1:4">
+      <c r="E393" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
       <c r="A394" s="1">
         <v>1219</v>
       </c>
@@ -12026,8 +12074,11 @@
       <c r="D394" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="395" spans="1:4">
+      <c r="E394" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
       <c r="A395" s="1">
         <v>547</v>
       </c>
@@ -12040,8 +12091,11 @@
       <c r="D395" s="6" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="396" spans="1:4">
+      <c r="E395" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
       <c r="A396" s="1">
         <v>86</v>
       </c>
@@ -12055,7 +12109,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:5">
       <c r="A397" s="1">
         <v>508</v>
       </c>
@@ -12069,7 +12123,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:5">
       <c r="A398" s="1">
         <v>279</v>
       </c>
@@ -12083,7 +12137,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:5">
       <c r="A399" s="1">
         <v>114</v>
       </c>
@@ -12097,7 +12151,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:5">
       <c r="A400" s="1">
         <v>647</v>
       </c>

--- a/Question/Only_Amazon.xlsx
+++ b/Question/Only_Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE290C9B-24AB-4D4C-92FE-E476576626D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE01C4F-9920-4A54-8A83-E72256459CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{03F0B197-2B7A-4F3C-AD55-70E8FD3568F4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="1570">
   <si>
     <t>Reorder Data in Log Files</t>
   </si>
@@ -5365,8 +5365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978693D1-CBC7-456F-A7AE-FF0803AD55CD}">
   <dimension ref="A1:K781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D375" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="E389" sqref="E389:E395"/>
+    <sheetView tabSelected="1" topLeftCell="D390" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="E395" sqref="E395:E411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12108,6 +12108,9 @@
       <c r="D396" s="6" t="s">
         <v>650</v>
       </c>
+      <c r="E396" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="1">
@@ -12122,6 +12125,9 @@
       <c r="D397" s="6" t="s">
         <v>1238</v>
       </c>
+      <c r="E397" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="1">
@@ -12136,6 +12142,9 @@
       <c r="D398" s="6" t="s">
         <v>796</v>
       </c>
+      <c r="E398" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="1">
@@ -12150,6 +12159,9 @@
       <c r="D399" s="6" t="s">
         <v>914</v>
       </c>
+      <c r="E399" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="400" spans="1:5">
       <c r="A400" s="1">
@@ -12164,8 +12176,11 @@
       <c r="D400" s="6" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="401" spans="1:4">
+      <c r="E400" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
       <c r="A401" s="1">
         <v>1236</v>
       </c>
@@ -12178,8 +12193,11 @@
       <c r="D401" s="6" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="402" spans="1:4">
+      <c r="E401" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
       <c r="A402" s="1">
         <v>1214</v>
       </c>
@@ -12192,8 +12210,11 @@
       <c r="D402" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="403" spans="1:4">
+      <c r="E402" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
       <c r="A403" s="1">
         <v>635</v>
       </c>
@@ -12206,8 +12227,11 @@
       <c r="D403" s="6" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="404" spans="1:4">
+      <c r="E403" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
       <c r="A404" s="1">
         <v>186</v>
       </c>
@@ -12220,8 +12244,11 @@
       <c r="D404" s="6" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="405" spans="1:4">
+      <c r="E404" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
       <c r="A405" s="1">
         <v>61</v>
       </c>
@@ -12234,8 +12261,11 @@
       <c r="D405" s="6" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="406" spans="1:4">
+      <c r="E405" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
       <c r="A406" s="1">
         <v>34</v>
       </c>
@@ -12248,8 +12278,11 @@
       <c r="D406" s="6" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="407" spans="1:4">
+      <c r="E406" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
       <c r="A407" s="1">
         <v>142</v>
       </c>
@@ -12262,8 +12295,11 @@
       <c r="D407" s="6" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="408" spans="1:4">
+      <c r="E407" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
       <c r="A408" s="1">
         <v>419</v>
       </c>
@@ -12276,8 +12312,11 @@
       <c r="D408" s="6" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="409" spans="1:4">
+      <c r="E408" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
       <c r="A409" s="1">
         <v>166</v>
       </c>
@@ -12290,8 +12329,11 @@
       <c r="D409" s="6" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="410" spans="1:4">
+      <c r="E409" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
       <c r="A410" s="1">
         <v>406</v>
       </c>
@@ -12304,8 +12346,11 @@
       <c r="D410" s="6" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="411" spans="1:4">
+      <c r="E410" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
       <c r="A411" s="1">
         <v>978</v>
       </c>
@@ -12318,8 +12363,11 @@
       <c r="D411" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="412" spans="1:4">
+      <c r="E411" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
       <c r="A412" s="1">
         <v>162</v>
       </c>
@@ -12333,7 +12381,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:5">
       <c r="A413" s="1">
         <v>366</v>
       </c>
@@ -12347,7 +12395,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:5">
       <c r="A414" s="1">
         <v>698</v>
       </c>
@@ -12361,7 +12409,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:5">
       <c r="A415" s="1">
         <v>528</v>
       </c>
@@ -12375,7 +12423,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:5">
       <c r="A416" s="1">
         <v>986</v>
       </c>

--- a/Question/Only_Amazon.xlsx
+++ b/Question/Only_Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE01C4F-9920-4A54-8A83-E72256459CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A9C6A1-0F67-4C94-A761-D47A8B4C2D68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{03F0B197-2B7A-4F3C-AD55-70E8FD3568F4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="1570">
   <si>
     <t>Reorder Data in Log Files</t>
   </si>
@@ -5366,7 +5366,7 @@
   <dimension ref="A1:K781"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D390" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="E395" sqref="E395:E411"/>
+      <selection activeCell="E411" sqref="E411:E419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12380,6 +12380,9 @@
       <c r="D412" s="6" t="s">
         <v>1084</v>
       </c>
+      <c r="E412" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="413" spans="1:5">
       <c r="A413" s="1">
@@ -12394,6 +12397,9 @@
       <c r="D413" s="6" t="s">
         <v>942</v>
       </c>
+      <c r="E413" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="414" spans="1:5">
       <c r="A414" s="1">
@@ -12408,6 +12414,9 @@
       <c r="D414" s="6" t="s">
         <v>558</v>
       </c>
+      <c r="E414" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="415" spans="1:5">
       <c r="A415" s="1">
@@ -12422,6 +12431,9 @@
       <c r="D415" s="6" t="s">
         <v>660</v>
       </c>
+      <c r="E415" s="5" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="416" spans="1:5">
       <c r="A416" s="1">
@@ -12436,8 +12448,11 @@
       <c r="D416" s="6" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="417" spans="1:4">
+      <c r="E416" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
       <c r="A417" s="1">
         <v>708</v>
       </c>
@@ -12450,8 +12465,11 @@
       <c r="D417" s="6" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="418" spans="1:4">
+      <c r="E417" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
       <c r="A418" s="1">
         <v>1024</v>
       </c>
@@ -12464,8 +12482,11 @@
       <c r="D418" s="6" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="419" spans="1:4">
+      <c r="E418" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
       <c r="A419" s="1">
         <v>402</v>
       </c>
@@ -12478,8 +12499,11 @@
       <c r="D419" s="6" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="420" spans="1:4">
+      <c r="E419" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
       <c r="A420" s="1">
         <v>361</v>
       </c>
@@ -12493,7 +12517,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:5">
       <c r="A421" s="1">
         <v>658</v>
       </c>
@@ -12507,7 +12531,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:5">
       <c r="A422" s="1">
         <v>451</v>
       </c>
@@ -12521,7 +12545,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:5">
       <c r="A423" s="1">
         <v>351</v>
       </c>
@@ -12535,7 +12559,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:5">
       <c r="A424" s="1">
         <v>159</v>
       </c>
@@ -12549,7 +12573,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:5">
       <c r="A425" s="1">
         <v>421</v>
       </c>
@@ -12563,7 +12587,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:5">
       <c r="A426" s="1">
         <v>785</v>
       </c>
@@ -12577,7 +12601,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:5">
       <c r="A427" s="1">
         <v>280</v>
       </c>
@@ -12591,7 +12615,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:5">
       <c r="A428" s="1">
         <v>337</v>
       </c>
@@ -12605,7 +12629,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:5">
       <c r="A429" s="1">
         <v>807</v>
       </c>
@@ -12619,7 +12643,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:5">
       <c r="A430" s="1">
         <v>1197</v>
       </c>
@@ -12633,7 +12657,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:5">
       <c r="A431" s="1">
         <v>662</v>
       </c>
@@ -12647,7 +12671,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:5">
       <c r="A432" s="1">
         <v>40</v>
       </c>
